--- a/data/raw/01-06_human_feedback.xlsx
+++ b/data/raw/01-06_human_feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/foulds/code/dsm050-2023-apr/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFC40B2-C228-114F-B012-EF0B11B4DBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187FDEF-F5CD-5746-82E1-389585B35C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="38380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1867">
   <si>
     <t>id</t>
   </si>
@@ -5896,10 +5896,70 @@
     <t>safety concern</t>
   </si>
   <si>
-    <t>new_complaint_classification</t>
-  </si>
-  <si>
-    <t>new_chatbot_classification</t>
+    <t>human_chatbot_classification</t>
+  </si>
+  <si>
+    <t>human_complaint_classification</t>
+  </si>
+  <si>
+    <t>blacklist</t>
+  </si>
+  <si>
+    <t>voice bundle</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>data bundle</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>new contract</t>
+  </si>
+  <si>
+    <t>subscription services</t>
+  </si>
+  <si>
+    <t>courier delivery</t>
+  </si>
+  <si>
+    <t>number does not exist</t>
+  </si>
+  <si>
+    <t>missing airtime</t>
+  </si>
+  <si>
+    <t>cancel bundle</t>
+  </si>
+  <si>
+    <t>downgrade account</t>
+  </si>
+  <si>
+    <t>vodamail</t>
+  </si>
+  <si>
+    <t>rewards</t>
+  </si>
+  <si>
+    <t>sim swap</t>
+  </si>
+  <si>
+    <t>vodabucks</t>
+  </si>
+  <si>
+    <t>sms spam</t>
   </si>
 </sst>
 </file>
@@ -6002,10 +6062,10 @@
     <tableColumn id="7" xr3:uid="{D9ED5856-D5F7-7A48-A394-8C39D6F1846C}" name="chatbot_related"/>
     <tableColumn id="8" xr3:uid="{2EA6229D-1C42-C343-A871-6D50576A407F}" name="chatbot_evidence"/>
     <tableColumn id="9" xr3:uid="{E438B2BC-6356-C244-AA96-AEC9F487FD90}" name="chatbot_classification" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{E0510D99-9D9F-8D4E-91AE-75B15AE48181}" name="new_chatbot_classification" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{E0510D99-9D9F-8D4E-91AE-75B15AE48181}" name="human_chatbot_classification" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{33648AB4-0FF8-B744-A440-19D06366560F}" name="chatbot_description" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{CF474B90-D10E-A845-AA71-0B8828A6FB7E}" name="chatbot_suggestion"/>
-    <tableColumn id="17" xr3:uid="{373162CA-6CF7-E245-80C7-4E322DA79A00}" name="new_complaint_classification"/>
+    <tableColumn id="17" xr3:uid="{373162CA-6CF7-E245-80C7-4E322DA79A00}" name="human_complaint_classification"/>
     <tableColumn id="12" xr3:uid="{E2DA2FE3-C658-954E-B672-53CA8896E68D}" name="complaint_classification" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{203A7C9D-0399-A146-B8EE-46CD14D19095}" name="complaint_service" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{DC475008-088B-7447-9799-7F1697516031}" name="complaint_description"/>
@@ -6302,8 +6362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J237" sqref="J237"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6315,11 +6375,10 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="20.5" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="22" style="2" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="21" hidden="1" customWidth="1"/>
@@ -6355,7 +6414,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -6364,7 +6423,7 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -6416,6 +6475,9 @@
       <c r="L2" t="s">
         <v>21</v>
       </c>
+      <c r="M2" t="s">
+        <v>1847</v>
+      </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
@@ -6466,6 +6528,9 @@
       <c r="L3" t="s">
         <v>31</v>
       </c>
+      <c r="M3" t="s">
+        <v>1859</v>
+      </c>
       <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
@@ -6516,6 +6581,9 @@
       <c r="L4" t="s">
         <v>41</v>
       </c>
+      <c r="M4" t="s">
+        <v>1848</v>
+      </c>
       <c r="N4" s="2" t="s">
         <v>42</v>
       </c>
@@ -6566,6 +6634,9 @@
       <c r="L5" t="s">
         <v>51</v>
       </c>
+      <c r="M5" t="s">
+        <v>1849</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>52</v>
       </c>
@@ -6616,6 +6687,9 @@
       <c r="L6" t="s">
         <v>60</v>
       </c>
+      <c r="M6" t="s">
+        <v>1850</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>42</v>
       </c>
@@ -6629,7 +6703,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3377852</v>
       </c>
@@ -6665,6 +6739,9 @@
       </c>
       <c r="L7" t="s">
         <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1851</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>29</v>
@@ -6716,6 +6793,9 @@
       <c r="L8" t="s">
         <v>75</v>
       </c>
+      <c r="M8" t="s">
+        <v>1852</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>52</v>
       </c>
@@ -6766,6 +6846,9 @@
       <c r="L9" t="s">
         <v>83</v>
       </c>
+      <c r="M9" t="s">
+        <v>1859</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>84</v>
       </c>
@@ -6816,6 +6899,9 @@
       <c r="L10" t="s">
         <v>93</v>
       </c>
+      <c r="M10" t="s">
+        <v>1853</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>94</v>
       </c>
@@ -6866,6 +6952,9 @@
       <c r="L11" t="s">
         <v>102</v>
       </c>
+      <c r="M11" t="s">
+        <v>1854</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>29</v>
       </c>
@@ -6916,6 +7005,9 @@
       <c r="L12" t="s">
         <v>111</v>
       </c>
+      <c r="M12" t="s">
+        <v>1855</v>
+      </c>
       <c r="N12" s="2" t="s">
         <v>112</v>
       </c>
@@ -6966,6 +7058,9 @@
       <c r="L13" t="s">
         <v>121</v>
       </c>
+      <c r="M13" t="s">
+        <v>1847</v>
+      </c>
       <c r="N13" s="2" t="s">
         <v>91</v>
       </c>
@@ -7016,6 +7111,9 @@
       <c r="L14" t="s">
         <v>130</v>
       </c>
+      <c r="M14" t="s">
+        <v>1849</v>
+      </c>
       <c r="N14" s="2" t="s">
         <v>32</v>
       </c>
@@ -7066,6 +7164,9 @@
       <c r="L15" t="s">
         <v>139</v>
       </c>
+      <c r="M15" t="s">
+        <v>1811</v>
+      </c>
       <c r="N15" s="2" t="s">
         <v>22</v>
       </c>
@@ -7116,6 +7217,9 @@
       <c r="L16" t="s">
         <v>147</v>
       </c>
+      <c r="M16" t="s">
+        <v>1849</v>
+      </c>
       <c r="N16" s="2" t="s">
         <v>32</v>
       </c>
@@ -7166,6 +7270,9 @@
       <c r="L17" t="s">
         <v>156</v>
       </c>
+      <c r="M17" t="s">
+        <v>1856</v>
+      </c>
       <c r="N17" s="2" t="s">
         <v>157</v>
       </c>
@@ -7216,6 +7323,9 @@
       <c r="L18" t="s">
         <v>165</v>
       </c>
+      <c r="M18" t="s">
+        <v>1857</v>
+      </c>
       <c r="N18" s="2" t="s">
         <v>166</v>
       </c>
@@ -7266,6 +7376,9 @@
       <c r="L19" t="s">
         <v>173</v>
       </c>
+      <c r="M19" t="s">
+        <v>1850</v>
+      </c>
       <c r="N19" s="2" t="s">
         <v>58</v>
       </c>
@@ -7316,6 +7429,9 @@
       <c r="L20" t="s">
         <v>179</v>
       </c>
+      <c r="M20" t="s">
+        <v>1811</v>
+      </c>
       <c r="N20" s="2" t="s">
         <v>29</v>
       </c>
@@ -7366,6 +7482,9 @@
       <c r="L21" t="s">
         <v>186</v>
       </c>
+      <c r="M21" t="s">
+        <v>1811</v>
+      </c>
       <c r="N21" s="2" t="s">
         <v>145</v>
       </c>
@@ -7416,6 +7535,9 @@
       <c r="L22" t="s">
         <v>195</v>
       </c>
+      <c r="M22" t="s">
+        <v>1859</v>
+      </c>
       <c r="N22" s="2" t="s">
         <v>94</v>
       </c>
@@ -7466,6 +7588,9 @@
       <c r="L23" t="s">
         <v>202</v>
       </c>
+      <c r="M23" t="s">
+        <v>1858</v>
+      </c>
       <c r="N23" s="2" t="s">
         <v>42</v>
       </c>
@@ -7516,6 +7641,9 @@
       <c r="L24" t="s">
         <v>211</v>
       </c>
+      <c r="M24" t="s">
+        <v>1849</v>
+      </c>
       <c r="N24" s="2" t="s">
         <v>212</v>
       </c>
@@ -7566,6 +7694,9 @@
       <c r="L25" t="s">
         <v>219</v>
       </c>
+      <c r="M25" t="s">
+        <v>1859</v>
+      </c>
       <c r="N25" s="2" t="s">
         <v>32</v>
       </c>
@@ -7616,6 +7747,9 @@
       <c r="L26" t="s">
         <v>226</v>
       </c>
+      <c r="M26" t="s">
+        <v>1849</v>
+      </c>
       <c r="N26" s="2" t="s">
         <v>227</v>
       </c>
@@ -7666,6 +7800,9 @@
       <c r="L27" t="s">
         <v>235</v>
       </c>
+      <c r="M27" t="s">
+        <v>1811</v>
+      </c>
       <c r="N27" s="2" t="s">
         <v>29</v>
       </c>
@@ -7716,6 +7853,9 @@
       <c r="L28" t="s">
         <v>243</v>
       </c>
+      <c r="M28" t="s">
+        <v>1854</v>
+      </c>
       <c r="N28" s="2" t="s">
         <v>29</v>
       </c>
@@ -7766,6 +7906,9 @@
       <c r="L29" t="s">
         <v>251</v>
       </c>
+      <c r="M29" t="s">
+        <v>1859</v>
+      </c>
       <c r="N29" s="2" t="s">
         <v>52</v>
       </c>
@@ -7816,6 +7959,9 @@
       <c r="L30" t="s">
         <v>259</v>
       </c>
+      <c r="M30" t="s">
+        <v>1850</v>
+      </c>
       <c r="N30" s="2" t="s">
         <v>257</v>
       </c>
@@ -7866,6 +8012,9 @@
       <c r="L31" t="s">
         <v>266</v>
       </c>
+      <c r="M31" t="s">
+        <v>1860</v>
+      </c>
       <c r="N31" s="2" t="s">
         <v>29</v>
       </c>
@@ -7916,6 +8065,9 @@
       <c r="L32" t="s">
         <v>274</v>
       </c>
+      <c r="M32" t="s">
+        <v>1849</v>
+      </c>
       <c r="N32" s="2" t="s">
         <v>94</v>
       </c>
@@ -7966,6 +8118,9 @@
       <c r="L33" t="s">
         <v>281</v>
       </c>
+      <c r="M33" t="s">
+        <v>1861</v>
+      </c>
       <c r="N33" s="2" t="s">
         <v>277</v>
       </c>
@@ -8016,6 +8171,9 @@
       <c r="L34" t="s">
         <v>289</v>
       </c>
+      <c r="M34" t="s">
+        <v>1811</v>
+      </c>
       <c r="N34" s="2" t="s">
         <v>29</v>
       </c>
@@ -8066,6 +8224,9 @@
       <c r="L35" t="s">
         <v>298</v>
       </c>
+      <c r="M35" t="s">
+        <v>1855</v>
+      </c>
       <c r="N35" s="2" t="s">
         <v>296</v>
       </c>
@@ -8116,6 +8277,9 @@
       <c r="L36" t="s">
         <v>306</v>
       </c>
+      <c r="M36" t="s">
+        <v>1851</v>
+      </c>
       <c r="N36" s="2" t="s">
         <v>52</v>
       </c>
@@ -8129,7 +8293,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="240" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="245" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3542558</v>
       </c>
@@ -8165,6 +8329,9 @@
       </c>
       <c r="L37" t="s">
         <v>315</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1862</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>310</v>
@@ -8216,6 +8383,9 @@
       <c r="L38" t="s">
         <v>323</v>
       </c>
+      <c r="M38" t="s">
+        <v>1857</v>
+      </c>
       <c r="N38" s="2" t="s">
         <v>324</v>
       </c>
@@ -8266,6 +8436,9 @@
       <c r="L39" t="s">
         <v>332</v>
       </c>
+      <c r="M39" t="s">
+        <v>1849</v>
+      </c>
       <c r="N39" s="2" t="s">
         <v>145</v>
       </c>
@@ -8316,6 +8489,9 @@
       <c r="L40" t="s">
         <v>339</v>
       </c>
+      <c r="M40" t="s">
+        <v>1811</v>
+      </c>
       <c r="N40" s="2" t="s">
         <v>145</v>
       </c>
@@ -8366,6 +8542,9 @@
       <c r="L41" t="s">
         <v>347</v>
       </c>
+      <c r="M41" t="s">
+        <v>1811</v>
+      </c>
       <c r="N41" s="2" t="s">
         <v>29</v>
       </c>
@@ -8416,6 +8595,9 @@
       <c r="L42" t="s">
         <v>355</v>
       </c>
+      <c r="M42" t="s">
+        <v>1811</v>
+      </c>
       <c r="N42" s="2" t="s">
         <v>356</v>
       </c>
@@ -8466,6 +8648,9 @@
       <c r="L43" t="s">
         <v>363</v>
       </c>
+      <c r="M43" t="s">
+        <v>1865</v>
+      </c>
       <c r="N43" s="2" t="s">
         <v>212</v>
       </c>
@@ -8516,6 +8701,9 @@
       <c r="L44" t="s">
         <v>371</v>
       </c>
+      <c r="M44" t="s">
+        <v>1811</v>
+      </c>
       <c r="N44" s="2" t="s">
         <v>372</v>
       </c>
@@ -8566,6 +8754,9 @@
       <c r="L45" t="s">
         <v>378</v>
       </c>
+      <c r="M45" t="s">
+        <v>1850</v>
+      </c>
       <c r="N45" s="2" t="s">
         <v>212</v>
       </c>
@@ -8616,6 +8807,9 @@
       <c r="L46" t="s">
         <v>386</v>
       </c>
+      <c r="M46" t="s">
+        <v>1850</v>
+      </c>
       <c r="N46" s="2" t="s">
         <v>145</v>
       </c>
@@ -8666,6 +8860,9 @@
       <c r="L47" t="s">
         <v>393</v>
       </c>
+      <c r="M47" t="s">
+        <v>1865</v>
+      </c>
       <c r="N47" s="2" t="s">
         <v>394</v>
       </c>
@@ -8716,6 +8913,9 @@
       <c r="L48" t="s">
         <v>403</v>
       </c>
+      <c r="M48" t="s">
+        <v>1864</v>
+      </c>
       <c r="N48" s="2" t="s">
         <v>145</v>
       </c>
@@ -8766,6 +8966,9 @@
       <c r="L49" t="s">
         <v>412</v>
       </c>
+      <c r="M49" t="s">
+        <v>1850</v>
+      </c>
       <c r="N49" s="2" t="s">
         <v>413</v>
       </c>
@@ -8816,6 +9019,9 @@
       <c r="L50" t="s">
         <v>421</v>
       </c>
+      <c r="M50" t="s">
+        <v>1851</v>
+      </c>
       <c r="N50" s="2" t="s">
         <v>52</v>
       </c>
@@ -8866,6 +9072,9 @@
       <c r="L51" t="s">
         <v>429</v>
       </c>
+      <c r="M51" t="s">
+        <v>1864</v>
+      </c>
       <c r="N51" s="2" t="s">
         <v>84</v>
       </c>
@@ -8916,6 +9125,9 @@
       <c r="L52" t="s">
         <v>437</v>
       </c>
+      <c r="M52" t="s">
+        <v>1865</v>
+      </c>
       <c r="N52" s="2" t="s">
         <v>145</v>
       </c>
@@ -8966,6 +9178,9 @@
       <c r="L53" t="s">
         <v>444</v>
       </c>
+      <c r="M53" t="s">
+        <v>1859</v>
+      </c>
       <c r="N53" s="2" t="s">
         <v>52</v>
       </c>
@@ -9016,6 +9231,9 @@
       <c r="L54" t="s">
         <v>452</v>
       </c>
+      <c r="M54" t="s">
+        <v>1849</v>
+      </c>
       <c r="N54" s="2" t="s">
         <v>84</v>
       </c>
@@ -9066,6 +9284,9 @@
       <c r="L55" t="s">
         <v>460</v>
       </c>
+      <c r="M55" t="s">
+        <v>1811</v>
+      </c>
       <c r="N55" s="2" t="s">
         <v>461</v>
       </c>
@@ -9116,6 +9337,9 @@
       <c r="L56" t="s">
         <v>468</v>
       </c>
+      <c r="M56" t="s">
+        <v>1857</v>
+      </c>
       <c r="N56" s="2" t="s">
         <v>145</v>
       </c>
@@ -9166,6 +9390,9 @@
       <c r="L57" t="s">
         <v>475</v>
       </c>
+      <c r="M57" t="s">
+        <v>1866</v>
+      </c>
       <c r="N57" s="2" t="s">
         <v>476</v>
       </c>
@@ -9216,6 +9443,9 @@
       <c r="L58" t="s">
         <v>483</v>
       </c>
+      <c r="M58" t="s">
+        <v>1811</v>
+      </c>
       <c r="N58" s="2" t="s">
         <v>479</v>
       </c>
@@ -9266,6 +9496,9 @@
       <c r="L59" t="s">
         <v>490</v>
       </c>
+      <c r="M59" t="s">
+        <v>1852</v>
+      </c>
       <c r="N59" s="2" t="s">
         <v>491</v>
       </c>
@@ -9316,6 +9549,9 @@
       <c r="L60" t="s">
         <v>499</v>
       </c>
+      <c r="M60" t="s">
+        <v>1859</v>
+      </c>
       <c r="N60" s="2" t="s">
         <v>84</v>
       </c>
@@ -9366,6 +9602,9 @@
       <c r="L61" t="s">
         <v>507</v>
       </c>
+      <c r="M61" t="s">
+        <v>1866</v>
+      </c>
       <c r="N61" s="2" t="s">
         <v>508</v>
       </c>
@@ -9416,6 +9655,9 @@
       <c r="L62" t="s">
         <v>515</v>
       </c>
+      <c r="M62" t="s">
+        <v>1811</v>
+      </c>
       <c r="N62" s="2" t="s">
         <v>145</v>
       </c>
@@ -9466,6 +9708,9 @@
       <c r="L63" t="s">
         <v>522</v>
       </c>
+      <c r="M63" t="s">
+        <v>1849</v>
+      </c>
       <c r="N63" s="2" t="s">
         <v>523</v>
       </c>
@@ -9516,6 +9761,9 @@
       <c r="L64" t="s">
         <v>530</v>
       </c>
+      <c r="M64" t="s">
+        <v>1854</v>
+      </c>
       <c r="N64" s="2" t="s">
         <v>531</v>
       </c>
@@ -9566,6 +9814,9 @@
       <c r="L65" t="s">
         <v>538</v>
       </c>
+      <c r="M65" t="s">
+        <v>1852</v>
+      </c>
       <c r="N65" s="2" t="s">
         <v>491</v>
       </c>
@@ -9616,6 +9867,9 @@
       <c r="L66" t="s">
         <v>545</v>
       </c>
+      <c r="M66" t="s">
+        <v>1856</v>
+      </c>
       <c r="N66" s="2" t="s">
         <v>541</v>
       </c>
@@ -9666,6 +9920,9 @@
       <c r="L67" t="s">
         <v>552</v>
       </c>
+      <c r="M67" t="s">
+        <v>1855</v>
+      </c>
       <c r="N67" s="2" t="s">
         <v>29</v>
       </c>
@@ -9716,6 +9973,9 @@
       <c r="L68" t="s">
         <v>559</v>
       </c>
+      <c r="M68" t="s">
+        <v>1811</v>
+      </c>
       <c r="N68" s="2" t="s">
         <v>29</v>
       </c>
@@ -9766,6 +10026,9 @@
       <c r="L69" t="s">
         <v>567</v>
       </c>
+      <c r="M69" t="s">
+        <v>1811</v>
+      </c>
       <c r="N69" s="2" t="s">
         <v>145</v>
       </c>
@@ -9816,6 +10079,9 @@
       <c r="L70" t="s">
         <v>575</v>
       </c>
+      <c r="M70" t="s">
+        <v>1811</v>
+      </c>
       <c r="N70" s="2" t="s">
         <v>573</v>
       </c>
@@ -9866,6 +10132,9 @@
       <c r="L71" t="s">
         <v>583</v>
       </c>
+      <c r="M71" t="s">
+        <v>1850</v>
+      </c>
       <c r="N71" s="2" t="s">
         <v>579</v>
       </c>
@@ -9916,6 +10185,9 @@
       <c r="L72" t="s">
         <v>590</v>
       </c>
+      <c r="M72" t="s">
+        <v>1849</v>
+      </c>
       <c r="N72" s="2" t="s">
         <v>29</v>
       </c>
@@ -9966,6 +10238,9 @@
       <c r="L73" t="s">
         <v>597</v>
       </c>
+      <c r="M73" t="s">
+        <v>1811</v>
+      </c>
       <c r="N73" s="2" t="s">
         <v>145</v>
       </c>
@@ -10016,6 +10291,9 @@
       <c r="L74" t="s">
         <v>604</v>
       </c>
+      <c r="M74" t="s">
+        <v>1811</v>
+      </c>
       <c r="N74" s="2" t="s">
         <v>605</v>
       </c>
@@ -10066,6 +10344,9 @@
       <c r="L75" t="s">
         <v>612</v>
       </c>
+      <c r="M75" t="s">
+        <v>1811</v>
+      </c>
       <c r="N75" s="2" t="s">
         <v>29</v>
       </c>
@@ -10116,6 +10397,9 @@
       <c r="L76" t="s">
         <v>619</v>
       </c>
+      <c r="M76" t="s">
+        <v>1857</v>
+      </c>
       <c r="N76" s="2" t="s">
         <v>615</v>
       </c>
@@ -10166,6 +10450,9 @@
       <c r="L77" t="s">
         <v>627</v>
       </c>
+      <c r="M77" t="s">
+        <v>1850</v>
+      </c>
       <c r="N77" s="2" t="s">
         <v>145</v>
       </c>
@@ -10216,6 +10503,9 @@
       <c r="L78" t="s">
         <v>634</v>
       </c>
+      <c r="M78" t="s">
+        <v>1852</v>
+      </c>
       <c r="N78" s="2" t="s">
         <v>32</v>
       </c>
@@ -10266,6 +10556,9 @@
       <c r="L79" t="s">
         <v>641</v>
       </c>
+      <c r="M79" t="s">
+        <v>1863</v>
+      </c>
       <c r="N79" s="2" t="s">
         <v>84</v>
       </c>
@@ -10316,6 +10609,9 @@
       <c r="L80" t="s">
         <v>648</v>
       </c>
+      <c r="M80" t="s">
+        <v>1811</v>
+      </c>
       <c r="N80" s="2" t="s">
         <v>29</v>
       </c>
@@ -10366,6 +10662,9 @@
       <c r="L81" t="s">
         <v>656</v>
       </c>
+      <c r="M81" t="s">
+        <v>1864</v>
+      </c>
       <c r="N81" s="2" t="s">
         <v>29</v>
       </c>
@@ -10416,6 +10715,9 @@
       <c r="L82" t="s">
         <v>663</v>
       </c>
+      <c r="M82" t="s">
+        <v>1854</v>
+      </c>
       <c r="N82" s="2" t="s">
         <v>664</v>
       </c>
@@ -10466,6 +10768,9 @@
       <c r="L83" t="s">
         <v>672</v>
       </c>
+      <c r="M83" t="s">
+        <v>1811</v>
+      </c>
       <c r="N83" s="2" t="s">
         <v>145</v>
       </c>
@@ -10516,6 +10821,9 @@
       <c r="L84" t="s">
         <v>679</v>
       </c>
+      <c r="M84" t="s">
+        <v>1849</v>
+      </c>
       <c r="N84" s="2" t="s">
         <v>680</v>
       </c>
@@ -10566,6 +10874,9 @@
       <c r="L85" t="s">
         <v>686</v>
       </c>
+      <c r="M85" t="s">
+        <v>1856</v>
+      </c>
       <c r="N85" s="2" t="s">
         <v>687</v>
       </c>
@@ -10616,6 +10927,9 @@
       <c r="L86" t="s">
         <v>695</v>
       </c>
+      <c r="M86" t="s">
+        <v>1850</v>
+      </c>
       <c r="N86" s="2" t="s">
         <v>696</v>
       </c>
@@ -10666,6 +10980,9 @@
       <c r="L87" t="s">
         <v>703</v>
       </c>
+      <c r="M87" t="s">
+        <v>1811</v>
+      </c>
       <c r="N87" s="2" t="s">
         <v>29</v>
       </c>
@@ -10716,6 +11033,9 @@
       <c r="L88" t="s">
         <v>710</v>
       </c>
+      <c r="M88" t="s">
+        <v>1853</v>
+      </c>
       <c r="N88" s="2" t="s">
         <v>711</v>
       </c>
@@ -10765,6 +11085,9 @@
       </c>
       <c r="L89" t="s">
         <v>718</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1849</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>145</v>

--- a/data/raw/01-06_human_feedback.xlsx
+++ b/data/raw/01-06_human_feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/foulds/code/dsm050-2023-apr/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187FDEF-F5CD-5746-82E1-389585B35C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E4DC2-A4C4-254C-AF6C-2609D7D03F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="38380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1874">
   <si>
     <t>id</t>
   </si>
@@ -5960,6 +5960,27 @@
   </si>
   <si>
     <t>sms spam</t>
+  </si>
+  <si>
+    <t>cancellation</t>
+  </si>
+  <si>
+    <t>FTTH</t>
+  </si>
+  <si>
+    <t>number recycle</t>
+  </si>
+  <si>
+    <t>roaming</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>vodapay</t>
+  </si>
+  <si>
+    <t>lock sim</t>
   </si>
 </sst>
 </file>
@@ -6362,8 +6383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M236" sqref="M236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11139,6 +11160,9 @@
       <c r="L90" t="s">
         <v>726</v>
       </c>
+      <c r="M90" t="s">
+        <v>1855</v>
+      </c>
       <c r="N90" s="2" t="s">
         <v>401</v>
       </c>
@@ -11189,6 +11213,9 @@
       <c r="L91" t="s">
         <v>733</v>
       </c>
+      <c r="M91" t="s">
+        <v>1851</v>
+      </c>
       <c r="N91" s="2" t="s">
         <v>29</v>
       </c>
@@ -11239,6 +11266,9 @@
       <c r="L92" t="s">
         <v>740</v>
       </c>
+      <c r="M92" t="s">
+        <v>1862</v>
+      </c>
       <c r="N92" s="2" t="s">
         <v>58</v>
       </c>
@@ -11289,6 +11319,9 @@
       <c r="L93" t="s">
         <v>748</v>
       </c>
+      <c r="M93" t="s">
+        <v>1850</v>
+      </c>
       <c r="N93" s="2" t="s">
         <v>744</v>
       </c>
@@ -11339,6 +11372,9 @@
       <c r="L94" t="s">
         <v>756</v>
       </c>
+      <c r="M94" t="s">
+        <v>1867</v>
+      </c>
       <c r="N94" s="2" t="s">
         <v>29</v>
       </c>
@@ -11389,6 +11425,9 @@
       <c r="L95" t="s">
         <v>763</v>
       </c>
+      <c r="M95" t="s">
+        <v>1850</v>
+      </c>
       <c r="N95" s="2" t="s">
         <v>84</v>
       </c>
@@ -11439,6 +11478,9 @@
       <c r="L96" t="s">
         <v>771</v>
       </c>
+      <c r="M96" t="s">
+        <v>1811</v>
+      </c>
       <c r="N96" s="2" t="s">
         <v>766</v>
       </c>
@@ -11489,6 +11531,9 @@
       <c r="L97" t="s">
         <v>778</v>
       </c>
+      <c r="M97" t="s">
+        <v>1868</v>
+      </c>
       <c r="N97" s="2" t="s">
         <v>84</v>
       </c>
@@ -11539,6 +11584,9 @@
       <c r="L98" t="s">
         <v>787</v>
       </c>
+      <c r="M98" t="s">
+        <v>1865</v>
+      </c>
       <c r="N98" s="2" t="s">
         <v>29</v>
       </c>
@@ -11589,6 +11637,9 @@
       <c r="L99" t="s">
         <v>794</v>
       </c>
+      <c r="M99" t="s">
+        <v>1849</v>
+      </c>
       <c r="N99" s="2" t="s">
         <v>413</v>
       </c>
@@ -11639,6 +11690,9 @@
       <c r="L100" t="s">
         <v>801</v>
       </c>
+      <c r="M100" t="s">
+        <v>1849</v>
+      </c>
       <c r="N100" s="2" t="s">
         <v>802</v>
       </c>
@@ -11689,6 +11743,9 @@
       <c r="L101" t="s">
         <v>808</v>
       </c>
+      <c r="M101" t="s">
+        <v>1864</v>
+      </c>
       <c r="N101" s="2" t="s">
         <v>413</v>
       </c>
@@ -11739,6 +11796,9 @@
       <c r="L102" t="s">
         <v>815</v>
       </c>
+      <c r="M102" t="s">
+        <v>1849</v>
+      </c>
       <c r="N102" s="2" t="s">
         <v>32</v>
       </c>
@@ -11789,6 +11849,9 @@
       <c r="L103" t="s">
         <v>823</v>
       </c>
+      <c r="M103" t="s">
+        <v>1849</v>
+      </c>
       <c r="N103" s="2" t="s">
         <v>32</v>
       </c>
@@ -11839,6 +11902,9 @@
       <c r="L104" t="s">
         <v>831</v>
       </c>
+      <c r="M104" t="s">
+        <v>1849</v>
+      </c>
       <c r="N104" s="2" t="s">
         <v>145</v>
       </c>
@@ -11889,6 +11955,9 @@
       <c r="L105" t="s">
         <v>838</v>
       </c>
+      <c r="M105" t="s">
+        <v>1811</v>
+      </c>
       <c r="N105" s="2" t="s">
         <v>834</v>
       </c>
@@ -11939,6 +12008,9 @@
       <c r="L106" t="s">
         <v>847</v>
       </c>
+      <c r="M106" t="s">
+        <v>1850</v>
+      </c>
       <c r="N106" s="2" t="s">
         <v>848</v>
       </c>
@@ -11989,6 +12061,9 @@
       <c r="L107" t="s">
         <v>855</v>
       </c>
+      <c r="M107" t="s">
+        <v>1811</v>
+      </c>
       <c r="N107" s="2" t="s">
         <v>145</v>
       </c>
@@ -12039,6 +12114,9 @@
       <c r="L108" t="s">
         <v>861</v>
       </c>
+      <c r="M108" t="s">
+        <v>1811</v>
+      </c>
       <c r="N108" s="2" t="s">
         <v>145</v>
       </c>
@@ -12089,6 +12167,9 @@
       <c r="L109" t="s">
         <v>866</v>
       </c>
+      <c r="M109" t="s">
+        <v>1859</v>
+      </c>
       <c r="N109" s="2" t="s">
         <v>867</v>
       </c>
@@ -12139,6 +12220,9 @@
       <c r="L110" t="s">
         <v>873</v>
       </c>
+      <c r="M110" t="s">
+        <v>1859</v>
+      </c>
       <c r="N110" s="2" t="s">
         <v>84</v>
       </c>
@@ -12189,6 +12273,9 @@
       <c r="L111" t="s">
         <v>881</v>
       </c>
+      <c r="M111" t="s">
+        <v>1865</v>
+      </c>
       <c r="N111" s="2" t="s">
         <v>84</v>
       </c>
@@ -12239,6 +12326,9 @@
       <c r="L112" t="s">
         <v>888</v>
       </c>
+      <c r="M112" t="s">
+        <v>1869</v>
+      </c>
       <c r="N112" s="2" t="s">
         <v>84</v>
       </c>
@@ -12289,6 +12379,9 @@
       <c r="L113" t="s">
         <v>896</v>
       </c>
+      <c r="M113" t="s">
+        <v>1811</v>
+      </c>
       <c r="N113" s="2" t="s">
         <v>145</v>
       </c>
@@ -12339,6 +12432,9 @@
       <c r="L114" t="s">
         <v>904</v>
       </c>
+      <c r="M114" t="s">
+        <v>1811</v>
+      </c>
       <c r="N114" s="2" t="s">
         <v>29</v>
       </c>
@@ -12389,6 +12485,9 @@
       <c r="L115" t="s">
         <v>912</v>
       </c>
+      <c r="M115" t="s">
+        <v>1811</v>
+      </c>
       <c r="N115" s="2" t="s">
         <v>913</v>
       </c>
@@ -12439,6 +12538,9 @@
       <c r="L116" t="s">
         <v>920</v>
       </c>
+      <c r="M116" t="s">
+        <v>1849</v>
+      </c>
       <c r="N116" s="2" t="s">
         <v>29</v>
       </c>
@@ -12489,6 +12591,9 @@
       <c r="L117" t="s">
         <v>926</v>
       </c>
+      <c r="M117" t="s">
+        <v>1862</v>
+      </c>
       <c r="N117" s="2" t="s">
         <v>29</v>
       </c>
@@ -12539,6 +12644,9 @@
       <c r="L118" t="s">
         <v>935</v>
       </c>
+      <c r="M118" t="s">
+        <v>1811</v>
+      </c>
       <c r="N118" s="2" t="s">
         <v>58</v>
       </c>
@@ -12552,7 +12660,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="96" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3885003</v>
       </c>
@@ -12588,6 +12696,9 @@
       </c>
       <c r="L119" t="s">
         <v>943</v>
+      </c>
+      <c r="M119" t="s">
+        <v>1811</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>29</v>
@@ -12639,6 +12750,9 @@
       <c r="L120" t="s">
         <v>950</v>
       </c>
+      <c r="M120" t="s">
+        <v>1811</v>
+      </c>
       <c r="N120" s="2" t="s">
         <v>29</v>
       </c>
@@ -12689,6 +12803,9 @@
       <c r="L121" t="s">
         <v>957</v>
       </c>
+      <c r="M121" t="s">
+        <v>1811</v>
+      </c>
       <c r="N121" s="2" t="s">
         <v>958</v>
       </c>
@@ -12739,6 +12856,9 @@
       <c r="L122" t="s">
         <v>965</v>
       </c>
+      <c r="M122" t="s">
+        <v>1868</v>
+      </c>
       <c r="N122" s="2" t="s">
         <v>145</v>
       </c>
@@ -12789,6 +12909,9 @@
       <c r="L123" t="s">
         <v>973</v>
       </c>
+      <c r="M123" t="s">
+        <v>1870</v>
+      </c>
       <c r="N123" s="2" t="s">
         <v>29</v>
       </c>
@@ -12839,6 +12962,9 @@
       <c r="L124" t="s">
         <v>980</v>
       </c>
+      <c r="M124" t="s">
+        <v>1871</v>
+      </c>
       <c r="N124" s="2" t="s">
         <v>981</v>
       </c>
@@ -12889,6 +13015,9 @@
       <c r="L125" t="s">
         <v>989</v>
       </c>
+      <c r="M125" t="s">
+        <v>1871</v>
+      </c>
       <c r="N125" s="2" t="s">
         <v>990</v>
       </c>
@@ -12939,6 +13068,9 @@
       <c r="L126" t="s">
         <v>998</v>
       </c>
+      <c r="M126" t="s">
+        <v>1843</v>
+      </c>
       <c r="N126" s="2" t="s">
         <v>996</v>
       </c>
@@ -12989,6 +13121,9 @@
       <c r="L127" t="s">
         <v>1005</v>
       </c>
+      <c r="M127" t="s">
+        <v>1857</v>
+      </c>
       <c r="N127" s="2" t="s">
         <v>84</v>
       </c>
@@ -13039,6 +13174,9 @@
       <c r="L128" t="s">
         <v>1013</v>
       </c>
+      <c r="M128" t="s">
+        <v>1854</v>
+      </c>
       <c r="N128" s="2" t="s">
         <v>1014</v>
       </c>
@@ -13089,6 +13227,9 @@
       <c r="L129" t="s">
         <v>1023</v>
       </c>
+      <c r="M129" t="s">
+        <v>1865</v>
+      </c>
       <c r="N129" s="2" t="s">
         <v>427</v>
       </c>
@@ -13139,6 +13280,9 @@
       <c r="L130" t="s">
         <v>1030</v>
       </c>
+      <c r="M130" t="s">
+        <v>1855</v>
+      </c>
       <c r="N130" s="2" t="s">
         <v>1031</v>
       </c>
@@ -13189,6 +13333,9 @@
       <c r="L131" t="s">
         <v>1038</v>
       </c>
+      <c r="M131" t="s">
+        <v>1852</v>
+      </c>
       <c r="N131" s="2" t="s">
         <v>84</v>
       </c>
@@ -13239,6 +13386,9 @@
       <c r="L132" t="s">
         <v>1045</v>
       </c>
+      <c r="M132" t="s">
+        <v>1850</v>
+      </c>
       <c r="N132" s="2" t="s">
         <v>52</v>
       </c>
@@ -13289,6 +13439,9 @@
       <c r="L133" t="s">
         <v>1051</v>
       </c>
+      <c r="M133" t="s">
+        <v>1853</v>
+      </c>
       <c r="N133" s="2" t="s">
         <v>145</v>
       </c>
@@ -13339,6 +13492,9 @@
       <c r="L134" t="s">
         <v>1058</v>
       </c>
+      <c r="M134" t="s">
+        <v>1859</v>
+      </c>
       <c r="N134" s="2" t="s">
         <v>32</v>
       </c>
@@ -13389,6 +13545,9 @@
       <c r="L135" t="s">
         <v>1066</v>
       </c>
+      <c r="M135" t="s">
+        <v>1862</v>
+      </c>
       <c r="N135" s="2" t="s">
         <v>145</v>
       </c>
@@ -13439,6 +13598,9 @@
       <c r="L136" t="s">
         <v>1073</v>
       </c>
+      <c r="M136" t="s">
+        <v>1851</v>
+      </c>
       <c r="N136" s="2" t="s">
         <v>413</v>
       </c>
@@ -13489,6 +13651,9 @@
       <c r="L137" t="s">
         <v>1081</v>
       </c>
+      <c r="M137" t="s">
+        <v>1864</v>
+      </c>
       <c r="N137" s="2" t="s">
         <v>84</v>
       </c>
@@ -13539,6 +13704,9 @@
       <c r="L138" t="s">
         <v>1088</v>
       </c>
+      <c r="M138" t="s">
+        <v>1811</v>
+      </c>
       <c r="N138" s="2" t="s">
         <v>145</v>
       </c>
@@ -13589,6 +13757,9 @@
       <c r="L139" t="s">
         <v>1096</v>
       </c>
+      <c r="M139" t="s">
+        <v>1870</v>
+      </c>
       <c r="N139" s="2" t="s">
         <v>680</v>
       </c>
@@ -13639,6 +13810,9 @@
       <c r="L140" t="s">
         <v>1104</v>
       </c>
+      <c r="M140" t="s">
+        <v>1870</v>
+      </c>
       <c r="N140" s="2" t="s">
         <v>32</v>
       </c>
@@ -13689,6 +13863,9 @@
       <c r="L141" t="s">
         <v>1111</v>
       </c>
+      <c r="M141" t="s">
+        <v>1851</v>
+      </c>
       <c r="N141" s="2" t="s">
         <v>84</v>
       </c>
@@ -13739,6 +13916,9 @@
       <c r="L142" t="s">
         <v>1119</v>
       </c>
+      <c r="M142" t="s">
+        <v>1851</v>
+      </c>
       <c r="N142" s="2" t="s">
         <v>94</v>
       </c>
@@ -13789,6 +13969,9 @@
       <c r="L143" t="s">
         <v>1128</v>
       </c>
+      <c r="M143" t="s">
+        <v>1843</v>
+      </c>
     </row>
     <row r="144" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A144">
@@ -13827,6 +14010,9 @@
       <c r="L144" t="s">
         <v>1133</v>
       </c>
+      <c r="M144" t="s">
+        <v>1849</v>
+      </c>
       <c r="N144" s="2" t="s">
         <v>32</v>
       </c>
@@ -13877,6 +14063,9 @@
       <c r="L145" t="s">
         <v>1141</v>
       </c>
+      <c r="M145" t="s">
+        <v>1867</v>
+      </c>
       <c r="N145" s="2" t="s">
         <v>145</v>
       </c>
@@ -13927,6 +14116,9 @@
       <c r="L146" t="s">
         <v>1149</v>
       </c>
+      <c r="M146" t="s">
+        <v>1852</v>
+      </c>
       <c r="N146" s="2" t="s">
         <v>1150</v>
       </c>
@@ -13977,6 +14169,9 @@
       <c r="L147" t="s">
         <v>1157</v>
       </c>
+      <c r="M147" t="s">
+        <v>1811</v>
+      </c>
       <c r="N147" s="2" t="s">
         <v>94</v>
       </c>
@@ -14027,6 +14222,9 @@
       <c r="L148" t="s">
         <v>1164</v>
       </c>
+      <c r="M148" t="s">
+        <v>1856</v>
+      </c>
       <c r="N148" s="2" t="s">
         <v>32</v>
       </c>
@@ -14077,6 +14275,9 @@
       <c r="L149" t="s">
         <v>1171</v>
       </c>
+      <c r="M149" t="s">
+        <v>1849</v>
+      </c>
       <c r="N149" s="2" t="s">
         <v>32</v>
       </c>
@@ -14127,6 +14328,9 @@
       <c r="L150" t="s">
         <v>1179</v>
       </c>
+      <c r="M150" t="s">
+        <v>1849</v>
+      </c>
       <c r="N150" s="2" t="s">
         <v>32</v>
       </c>
@@ -14177,6 +14381,9 @@
       <c r="L151" t="s">
         <v>1187</v>
       </c>
+      <c r="M151" t="s">
+        <v>1850</v>
+      </c>
       <c r="N151" s="2" t="s">
         <v>1188</v>
       </c>
@@ -14227,6 +14434,9 @@
       <c r="L152" t="s">
         <v>1195</v>
       </c>
+      <c r="M152" t="s">
+        <v>1865</v>
+      </c>
       <c r="N152" s="2" t="s">
         <v>1196</v>
       </c>
@@ -14277,6 +14487,9 @@
       <c r="L153" t="s">
         <v>1203</v>
       </c>
+      <c r="M153" t="s">
+        <v>1870</v>
+      </c>
       <c r="N153" s="2" t="s">
         <v>29</v>
       </c>
@@ -14327,6 +14540,9 @@
       <c r="L154" t="s">
         <v>1210</v>
       </c>
+      <c r="M154" t="s">
+        <v>1811</v>
+      </c>
       <c r="N154" s="2" t="s">
         <v>1211</v>
       </c>
@@ -14377,6 +14593,9 @@
       <c r="L155" t="s">
         <v>1219</v>
       </c>
+      <c r="M155" t="s">
+        <v>1849</v>
+      </c>
       <c r="N155" s="2" t="s">
         <v>32</v>
       </c>
@@ -14427,6 +14646,9 @@
       <c r="L156" t="s">
         <v>1226</v>
       </c>
+      <c r="M156" t="s">
+        <v>1850</v>
+      </c>
       <c r="N156" s="2" t="s">
         <v>84</v>
       </c>
@@ -14477,6 +14699,9 @@
       <c r="L157" t="s">
         <v>1234</v>
       </c>
+      <c r="M157" t="s">
+        <v>1854</v>
+      </c>
       <c r="N157" s="2" t="s">
         <v>29</v>
       </c>
@@ -14527,6 +14752,9 @@
       <c r="L158" t="s">
         <v>1242</v>
       </c>
+      <c r="M158" t="s">
+        <v>1850</v>
+      </c>
       <c r="N158" s="2" t="s">
         <v>1243</v>
       </c>
@@ -14577,6 +14805,9 @@
       <c r="L159" t="s">
         <v>1250</v>
       </c>
+      <c r="M159" t="s">
+        <v>1849</v>
+      </c>
       <c r="N159" s="2" t="s">
         <v>32</v>
       </c>
@@ -14627,6 +14858,9 @@
       <c r="L160" t="s">
         <v>1257</v>
       </c>
+      <c r="M160" t="s">
+        <v>1811</v>
+      </c>
       <c r="N160" s="2" t="s">
         <v>52</v>
       </c>
@@ -14677,6 +14911,9 @@
       <c r="L161" t="s">
         <v>1265</v>
       </c>
+      <c r="M161" t="s">
+        <v>1849</v>
+      </c>
       <c r="N161" s="2" t="s">
         <v>32</v>
       </c>
@@ -14727,6 +14964,9 @@
       <c r="L162" t="s">
         <v>1272</v>
       </c>
+      <c r="M162" t="s">
+        <v>1811</v>
+      </c>
       <c r="N162" s="2" t="s">
         <v>29</v>
       </c>
@@ -14777,6 +15017,9 @@
       <c r="L163" t="s">
         <v>1280</v>
       </c>
+      <c r="M163" t="s">
+        <v>1850</v>
+      </c>
       <c r="N163" s="2" t="s">
         <v>1281</v>
       </c>
@@ -14827,6 +15070,9 @@
       <c r="L164" t="s">
         <v>1288</v>
       </c>
+      <c r="M164" t="s">
+        <v>1852</v>
+      </c>
       <c r="N164" s="2" t="s">
         <v>52</v>
       </c>
@@ -14877,6 +15123,9 @@
       <c r="L165" t="s">
         <v>1295</v>
       </c>
+      <c r="M165" t="s">
+        <v>1852</v>
+      </c>
       <c r="N165" s="2" t="s">
         <v>491</v>
       </c>
@@ -14927,6 +15176,9 @@
       <c r="L166" t="s">
         <v>1302</v>
       </c>
+      <c r="M166" t="s">
+        <v>1852</v>
+      </c>
       <c r="N166" s="2" t="s">
         <v>1303</v>
       </c>
@@ -14977,6 +15229,9 @@
       <c r="L167" t="s">
         <v>1310</v>
       </c>
+      <c r="M167" t="s">
+        <v>1811</v>
+      </c>
       <c r="N167" s="2" t="s">
         <v>145</v>
       </c>
@@ -15027,6 +15282,9 @@
       <c r="L168" t="s">
         <v>235</v>
       </c>
+      <c r="M168" t="s">
+        <v>1852</v>
+      </c>
       <c r="N168" s="2" t="s">
         <v>573</v>
       </c>
@@ -15077,6 +15335,9 @@
       <c r="L169" t="s">
         <v>1323</v>
       </c>
+      <c r="M169" t="s">
+        <v>1859</v>
+      </c>
       <c r="N169" s="2" t="s">
         <v>42</v>
       </c>
@@ -15127,6 +15388,9 @@
       <c r="L170" t="s">
         <v>1330</v>
       </c>
+      <c r="M170" t="s">
+        <v>1811</v>
+      </c>
       <c r="N170" s="2" t="s">
         <v>145</v>
       </c>
@@ -15177,6 +15441,9 @@
       <c r="L171" t="s">
         <v>1338</v>
       </c>
+      <c r="M171" t="s">
+        <v>1847</v>
+      </c>
       <c r="N171" s="2" t="s">
         <v>1339</v>
       </c>
@@ -15227,6 +15494,9 @@
       <c r="L172" t="s">
         <v>1347</v>
       </c>
+      <c r="M172" t="s">
+        <v>1847</v>
+      </c>
       <c r="N172" s="2" t="s">
         <v>1348</v>
       </c>
@@ -15277,6 +15547,9 @@
       <c r="L173" t="s">
         <v>1356</v>
       </c>
+      <c r="M173" t="s">
+        <v>1872</v>
+      </c>
       <c r="N173" s="2" t="s">
         <v>848</v>
       </c>
@@ -15327,6 +15600,9 @@
       <c r="L174" t="s">
         <v>1364</v>
       </c>
+      <c r="M174" t="s">
+        <v>1856</v>
+      </c>
       <c r="N174" s="2" t="s">
         <v>29</v>
       </c>
@@ -15377,6 +15653,9 @@
       <c r="L175" t="s">
         <v>1372</v>
       </c>
+      <c r="M175" t="s">
+        <v>1857</v>
+      </c>
       <c r="N175" s="2" t="s">
         <v>1373</v>
       </c>
@@ -15427,6 +15706,9 @@
       <c r="L176" t="s">
         <v>1381</v>
       </c>
+      <c r="M176" t="s">
+        <v>1811</v>
+      </c>
       <c r="N176" s="2" t="s">
         <v>145</v>
       </c>
@@ -15477,6 +15759,9 @@
       <c r="L177" t="s">
         <v>1388</v>
       </c>
+      <c r="M177" t="s">
+        <v>1853</v>
+      </c>
       <c r="N177" s="2" t="s">
         <v>145</v>
       </c>
@@ -15527,6 +15812,9 @@
       <c r="L178" t="s">
         <v>1395</v>
       </c>
+      <c r="M178" t="s">
+        <v>1811</v>
+      </c>
       <c r="N178" s="2" t="s">
         <v>29</v>
       </c>
@@ -15577,6 +15865,9 @@
       <c r="L179" t="s">
         <v>1402</v>
       </c>
+      <c r="M179" t="s">
+        <v>1854</v>
+      </c>
       <c r="N179" s="2" t="s">
         <v>1014</v>
       </c>
@@ -15627,6 +15918,9 @@
       <c r="L180" t="s">
         <v>1408</v>
       </c>
+      <c r="M180" t="s">
+        <v>1811</v>
+      </c>
       <c r="N180" s="2" t="s">
         <v>52</v>
       </c>
@@ -15677,6 +15971,9 @@
       <c r="L181" t="s">
         <v>1415</v>
       </c>
+      <c r="M181" t="s">
+        <v>1811</v>
+      </c>
       <c r="N181" s="2" t="s">
         <v>29</v>
       </c>
@@ -15727,6 +16024,9 @@
       <c r="L182" t="s">
         <v>1423</v>
       </c>
+      <c r="M182" t="s">
+        <v>1850</v>
+      </c>
       <c r="N182" s="2" t="s">
         <v>413</v>
       </c>
@@ -15777,6 +16077,9 @@
       <c r="L183" t="s">
         <v>1430</v>
       </c>
+      <c r="M183" t="s">
+        <v>1855</v>
+      </c>
       <c r="N183" s="2" t="s">
         <v>413</v>
       </c>
@@ -15827,6 +16130,9 @@
       <c r="L184" t="s">
         <v>1438</v>
       </c>
+      <c r="M184" t="s">
+        <v>1870</v>
+      </c>
       <c r="N184" s="2" t="s">
         <v>1439</v>
       </c>
@@ -15877,6 +16183,9 @@
       <c r="L185" t="s">
         <v>1446</v>
       </c>
+      <c r="M185" t="s">
+        <v>1868</v>
+      </c>
       <c r="N185" s="2" t="s">
         <v>84</v>
       </c>
@@ -15927,6 +16236,9 @@
       <c r="L186" t="s">
         <v>1454</v>
       </c>
+      <c r="M186" t="s">
+        <v>1811</v>
+      </c>
       <c r="N186" s="2" t="s">
         <v>958</v>
       </c>
@@ -15977,6 +16289,9 @@
       <c r="L187" t="s">
         <v>1461</v>
       </c>
+      <c r="M187" t="s">
+        <v>1851</v>
+      </c>
       <c r="N187" s="2" t="s">
         <v>84</v>
       </c>
@@ -16027,6 +16342,9 @@
       <c r="L188" t="s">
         <v>1833</v>
       </c>
+      <c r="M188" t="s">
+        <v>1850</v>
+      </c>
       <c r="N188" s="2" t="s">
         <v>94</v>
       </c>
@@ -16077,6 +16395,9 @@
       <c r="L189" t="s">
         <v>1825</v>
       </c>
+      <c r="M189" t="s">
+        <v>1862</v>
+      </c>
       <c r="N189" s="2" t="s">
         <v>58</v>
       </c>
@@ -16127,6 +16448,9 @@
       <c r="L190" t="s">
         <v>1818</v>
       </c>
+      <c r="M190" t="s">
+        <v>1871</v>
+      </c>
       <c r="N190" s="2" t="s">
         <v>427</v>
       </c>
@@ -16177,6 +16501,9 @@
       <c r="L191" t="s">
         <v>1810</v>
       </c>
+      <c r="M191" t="s">
+        <v>1811</v>
+      </c>
       <c r="N191" s="2" t="s">
         <v>1811</v>
       </c>
@@ -16227,6 +16554,9 @@
       <c r="L192" t="s">
         <v>1804</v>
       </c>
+      <c r="M192" t="s">
+        <v>1861</v>
+      </c>
       <c r="N192" s="2" t="s">
         <v>145</v>
       </c>
@@ -16277,6 +16607,9 @@
       <c r="L193" t="s">
         <v>1797</v>
       </c>
+      <c r="M193" t="s">
+        <v>1852</v>
+      </c>
       <c r="N193" s="2" t="s">
         <v>32</v>
       </c>
@@ -16327,6 +16660,9 @@
       <c r="L194" t="s">
         <v>1790</v>
       </c>
+      <c r="M194" t="s">
+        <v>1811</v>
+      </c>
       <c r="N194" s="2" t="s">
         <v>1786</v>
       </c>
@@ -16377,6 +16713,9 @@
       <c r="L195" t="s">
         <v>1783</v>
       </c>
+      <c r="M195" t="s">
+        <v>1849</v>
+      </c>
       <c r="N195" s="2" t="s">
         <v>32</v>
       </c>
@@ -16427,6 +16766,9 @@
       <c r="L196" t="s">
         <v>1775</v>
       </c>
+      <c r="M196" t="s">
+        <v>1811</v>
+      </c>
       <c r="N196" s="2" t="s">
         <v>29</v>
       </c>
@@ -16477,6 +16819,9 @@
       <c r="L197" t="s">
         <v>1768</v>
       </c>
+      <c r="M197" t="s">
+        <v>1851</v>
+      </c>
       <c r="N197" s="2" t="s">
         <v>413</v>
       </c>
@@ -16527,6 +16872,9 @@
       <c r="L198" t="s">
         <v>1761</v>
       </c>
+      <c r="M198" t="s">
+        <v>1849</v>
+      </c>
       <c r="N198" s="2" t="s">
         <v>32</v>
       </c>
@@ -16577,6 +16925,9 @@
       <c r="L199" t="s">
         <v>1754</v>
       </c>
+      <c r="M199" t="s">
+        <v>1811</v>
+      </c>
       <c r="N199" s="2" t="s">
         <v>29</v>
       </c>
@@ -16627,6 +16978,9 @@
       <c r="L200" t="s">
         <v>1746</v>
       </c>
+      <c r="M200" t="s">
+        <v>1856</v>
+      </c>
       <c r="N200" s="2" t="s">
         <v>32</v>
       </c>
@@ -16677,6 +17031,9 @@
       <c r="L201" t="s">
         <v>1739</v>
       </c>
+      <c r="M201" t="s">
+        <v>1873</v>
+      </c>
       <c r="N201" s="2" t="s">
         <v>84</v>
       </c>
@@ -16727,6 +17084,9 @@
       <c r="L202" t="s">
         <v>1732</v>
       </c>
+      <c r="M202" t="s">
+        <v>1855</v>
+      </c>
       <c r="N202" s="2" t="s">
         <v>579</v>
       </c>
@@ -16777,6 +17137,9 @@
       <c r="L203" t="s">
         <v>1725</v>
       </c>
+      <c r="M203" t="s">
+        <v>1869</v>
+      </c>
       <c r="N203" s="2" t="s">
         <v>52</v>
       </c>
@@ -16827,6 +17190,9 @@
       <c r="L204" t="s">
         <v>1717</v>
       </c>
+      <c r="M204" t="s">
+        <v>1865</v>
+      </c>
       <c r="N204" s="2" t="s">
         <v>84</v>
       </c>
@@ -16877,6 +17243,9 @@
       <c r="L205" t="s">
         <v>1709</v>
       </c>
+      <c r="M205" t="s">
+        <v>1850</v>
+      </c>
       <c r="N205" s="2" t="s">
         <v>1710</v>
       </c>
@@ -16927,6 +17296,9 @@
       <c r="L206" t="s">
         <v>1701</v>
       </c>
+      <c r="M206" t="s">
+        <v>1853</v>
+      </c>
       <c r="N206" s="2" t="s">
         <v>84</v>
       </c>
@@ -16977,6 +17349,9 @@
       <c r="L207" t="s">
         <v>1693</v>
       </c>
+      <c r="M207" t="s">
+        <v>1811</v>
+      </c>
       <c r="N207" s="2" t="s">
         <v>29</v>
       </c>
@@ -17027,6 +17402,9 @@
       <c r="L208" t="s">
         <v>1518</v>
       </c>
+      <c r="M208" t="s">
+        <v>1811</v>
+      </c>
       <c r="N208" s="2" t="s">
         <v>277</v>
       </c>
@@ -17077,6 +17455,9 @@
       <c r="L209" t="s">
         <v>1679</v>
       </c>
+      <c r="M209" t="s">
+        <v>1811</v>
+      </c>
       <c r="N209" s="2" t="s">
         <v>145</v>
       </c>
@@ -17127,6 +17508,9 @@
       <c r="L210" t="s">
         <v>1671</v>
       </c>
+      <c r="M210" t="s">
+        <v>1852</v>
+      </c>
       <c r="N210" s="2" t="s">
         <v>1667</v>
       </c>
@@ -17177,6 +17561,9 @@
       <c r="L211" t="s">
         <v>1662</v>
       </c>
+      <c r="M211" t="s">
+        <v>1849</v>
+      </c>
       <c r="N211" s="2" t="s">
         <v>1663</v>
       </c>
@@ -17227,6 +17614,9 @@
       <c r="L212" t="s">
         <v>1653</v>
       </c>
+      <c r="M212" t="s">
+        <v>1811</v>
+      </c>
       <c r="N212" s="2" t="s">
         <v>145</v>
       </c>
@@ -17277,6 +17667,9 @@
       <c r="L213" t="s">
         <v>1644</v>
       </c>
+      <c r="M213" t="s">
+        <v>1849</v>
+      </c>
       <c r="N213" s="2" t="s">
         <v>29</v>
       </c>
@@ -17327,6 +17720,9 @@
       <c r="L214" t="s">
         <v>1637</v>
       </c>
+      <c r="M214" t="s">
+        <v>1851</v>
+      </c>
       <c r="N214" s="2" t="s">
         <v>84</v>
       </c>
@@ -17377,6 +17773,9 @@
       <c r="L215" t="s">
         <v>1629</v>
       </c>
+      <c r="M215" t="s">
+        <v>1811</v>
+      </c>
       <c r="N215" s="2" t="s">
         <v>802</v>
       </c>
@@ -17427,6 +17826,9 @@
       <c r="L216" t="s">
         <v>1622</v>
       </c>
+      <c r="M216" t="s">
+        <v>1860</v>
+      </c>
       <c r="N216" s="2" t="s">
         <v>29</v>
       </c>
@@ -17477,6 +17879,9 @@
       <c r="L217" t="s">
         <v>1614</v>
       </c>
+      <c r="M217" t="s">
+        <v>1849</v>
+      </c>
       <c r="N217" s="2" t="s">
         <v>145</v>
       </c>
@@ -17527,6 +17932,9 @@
       <c r="L218" t="s">
         <v>1606</v>
       </c>
+      <c r="M218" t="s">
+        <v>1853</v>
+      </c>
       <c r="N218" s="2" t="s">
         <v>427</v>
       </c>
@@ -17577,6 +17985,9 @@
       <c r="L219" t="s">
         <v>1598</v>
       </c>
+      <c r="M219" t="s">
+        <v>1811</v>
+      </c>
       <c r="N219" s="2" t="s">
         <v>29</v>
       </c>
@@ -17627,6 +18038,9 @@
       <c r="L220" t="s">
         <v>1589</v>
       </c>
+      <c r="M220" t="s">
+        <v>1856</v>
+      </c>
       <c r="N220" s="2" t="s">
         <v>1590</v>
       </c>
@@ -17677,6 +18091,9 @@
       <c r="L221" t="s">
         <v>1582</v>
       </c>
+      <c r="M221" t="s">
+        <v>1852</v>
+      </c>
       <c r="N221" s="2" t="s">
         <v>1577</v>
       </c>
@@ -17727,6 +18144,9 @@
       <c r="L222" t="s">
         <v>1574</v>
       </c>
+      <c r="M222" t="s">
+        <v>1856</v>
+      </c>
       <c r="N222" s="2" t="s">
         <v>413</v>
       </c>
@@ -17777,6 +18197,9 @@
       <c r="L223" t="s">
         <v>1565</v>
       </c>
+      <c r="M223" t="s">
+        <v>1847</v>
+      </c>
       <c r="N223" s="2" t="s">
         <v>1566</v>
       </c>
@@ -17827,6 +18250,9 @@
       <c r="L224" t="s">
         <v>1558</v>
       </c>
+      <c r="M224" t="s">
+        <v>1849</v>
+      </c>
       <c r="N224" s="2" t="s">
         <v>32</v>
       </c>
@@ -17877,6 +18303,9 @@
       <c r="L225" t="s">
         <v>1551</v>
       </c>
+      <c r="M225" t="s">
+        <v>1850</v>
+      </c>
       <c r="N225" s="2" t="s">
         <v>1547</v>
       </c>
@@ -17927,6 +18356,9 @@
       <c r="L226" t="s">
         <v>1543</v>
       </c>
+      <c r="M226" t="s">
+        <v>1852</v>
+      </c>
       <c r="N226" s="2" t="s">
         <v>491</v>
       </c>
@@ -17977,6 +18409,9 @@
       <c r="L227" t="s">
         <v>1534</v>
       </c>
+      <c r="M227" t="s">
+        <v>1870</v>
+      </c>
       <c r="N227" s="2" t="s">
         <v>84</v>
       </c>
@@ -18027,6 +18462,9 @@
       <c r="L228" t="s">
         <v>1527</v>
       </c>
+      <c r="M228" t="s">
+        <v>1852</v>
+      </c>
       <c r="N228" s="2" t="s">
         <v>573</v>
       </c>
@@ -18077,6 +18515,9 @@
       <c r="L229" t="s">
         <v>1518</v>
       </c>
+      <c r="M229" t="s">
+        <v>1850</v>
+      </c>
       <c r="N229" s="2" t="s">
         <v>1519</v>
       </c>
@@ -18127,6 +18568,9 @@
       <c r="L230" t="s">
         <v>1511</v>
       </c>
+      <c r="M230" t="s">
+        <v>1852</v>
+      </c>
       <c r="N230" s="2" t="s">
         <v>84</v>
       </c>
@@ -18177,6 +18621,9 @@
       <c r="L231" t="s">
         <v>1504</v>
       </c>
+      <c r="M231" t="s">
+        <v>1849</v>
+      </c>
       <c r="N231" s="2" t="s">
         <v>32</v>
       </c>
@@ -18227,6 +18674,9 @@
       <c r="L232" t="s">
         <v>1496</v>
       </c>
+      <c r="M232" t="s">
+        <v>1811</v>
+      </c>
       <c r="N232" s="2" t="s">
         <v>29</v>
       </c>
@@ -18277,6 +18727,9 @@
       <c r="L233" t="s">
         <v>1490</v>
       </c>
+      <c r="M233" t="s">
+        <v>1847</v>
+      </c>
       <c r="N233" s="2" t="s">
         <v>29</v>
       </c>
@@ -18327,6 +18780,9 @@
       <c r="L234" t="s">
         <v>1483</v>
       </c>
+      <c r="M234" t="s">
+        <v>1811</v>
+      </c>
       <c r="N234" s="2" t="s">
         <v>52</v>
       </c>
@@ -18377,6 +18833,9 @@
       <c r="L235" t="s">
         <v>1475</v>
       </c>
+      <c r="M235" t="s">
+        <v>1847</v>
+      </c>
       <c r="N235" s="2" t="s">
         <v>52</v>
       </c>
@@ -18426,6 +18885,9 @@
       </c>
       <c r="L236" t="s">
         <v>1468</v>
+      </c>
+      <c r="M236" t="s">
+        <v>1849</v>
       </c>
       <c r="N236" s="2" t="s">
         <v>145</v>
